--- a/public/excel/example-event-import.xlsx
+++ b/public/excel/example-event-import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My-Project\EventHub\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F68E5-79D4-43AC-B561-ADD0E299273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A11BEF3-62B3-4189-A987-4AA5F5FEE730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A7C7AD7D-7F2A-4816-95D1-EBBAD95F1E0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,97 +36,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>category</t>
+    <t>categoryIds</t>
   </si>
   <si>
     <t>eventType</t>
   </si>
   <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>reasons</t>
+  </si>
+  <si>
+    <t>subImage</t>
+  </si>
+  <si>
+    <t>eventTicketType</t>
+  </si>
+  <si>
+    <t>ticketTypes</t>
+  </si>
+  <si>
+    <t>Ngày hội việc làm UIT</t>
+  </si>
+  <si>
+    <t>["b9c1b88c-94fe-4d1a-85c2-256986193374"]</t>
+  </si>
+  <si>
     <t>RECURRING</t>
   </si>
   <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>location</t>
+    <t>2024-09-18T07:00</t>
+  </si>
+  <si>
+    <t>2024-09-18T12:00</t>
   </si>
   <si>
     <t>University of Information Technology</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>UIT CAREER DAY là hoạt động thường niên của Trường Đại học Công nghệ Thông tin, được tổ chức nhằm tạo điều kiện để sinh viên có điều kiện gặp gỡ, trao đổi, tìm kiếm cơ hội việc làm, thực tập từ các doanh nghiệp hoạt động trong lĩnh vực Công nghệ Thông tin và Truyền thông trong và ngoài nước. Tại đây, sinh viên có cái nhìn thực tế và tổng quát nhất về thị trường tuyển dụng nhân lực IT hiện nay.</t>
   </si>
   <si>
-    <t>reasons</t>
-  </si>
-  <si>
-    <t>coverImage</t>
-  </si>
-  <si>
-    <t>https://lh7-us.googleusercontent.com/W7iTopDMEPpjQsQ8wbl1gJLkgAidXb77uUFObNgs0prYYz71UQEd8YkFoYvIGlBWPmvQq7n-3lHthSDTMPv52qXFCT862OWsaNZDDDd4KQmKPXpjob_DDlm-SVzbY404MWlxUNJNQCHopsQSrDPBs2A</t>
-  </si>
-  <si>
-    <t>subImage</t>
-  </si>
-  <si>
-    <t>eventTicketType</t>
-  </si>
-  <si>
-    <t>FEE</t>
-  </si>
-  <si>
-    <t>tickets</t>
-  </si>
-  <si>
-    <t>Ngày hội việc làm UIT</t>
-  </si>
-  <si>
-    <t>[{"name":"medium","quantity":100,"price":100}]</t>
-  </si>
-  <si>
-    <t>["https://tuyensinh.uit.edu.vn/sites/default/files/uploads/images/202312/tla00192.jpg","https://tuyensinh.uit.edu.vn/sites/default/files/uploads/images/202312/tla00233.jpg","https://tuyensinh.uit.edu.vn/sites/default/files/uploads/images/202312/tla00238.jpg","https://tuyensinh.uit.edu.vn/sites/default/files/uploads/images/202312/tla00278.jpg"]</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>["Cơ hội tìm kiếm việc làm","Học hỏi các nền văn hóa của các công ty trong và ngoài nước","Nhận được những phần quà hấp dẫn có ưu đãi"]</t>
-  </si>
-  <si>
-    <t>["b9c1b88c-94fe-4d1a-85c2-256986193374"]</t>
+    <t>["Cơ hội tìm kiếm việc làm cho các bạn sinh viên","Học hỏi các nền văn hóa doanh nghiệp của các công ty trong và ngoài nước","Nhận được những phần quà  công nghệ hấp dẫn"]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>[{"name":"medium","quantity":100,"price":100},{"name":"vip","quantity":100,"price":200}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -136,12 +124,10 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -167,34 +153,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -221,39 +199,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -286,9 +264,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -321,6 +316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,13 +394,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -397,6 +402,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -461,40 +473,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD9AC17-9FAB-4B43-8384-2E754D5713AD}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="35.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,90 +524,66 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <f>DATE(2024,9,18)</f>
-        <v>45553</v>
-      </c>
-      <c r="E2" s="4">
-        <f>E9</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{C099E4EB-8E6D-4032-B122-EBD1EE0C48F7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>